--- a/biology/Zoologie/Garrulaxe_d'Austen/Garrulaxe_d'Austen.xlsx
+++ b/biology/Zoologie/Garrulaxe_d'Austen/Garrulaxe_d'Austen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Garrulaxe_d%27Austen</t>
+          <t>Garrulaxe_d'Austen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trochalopteron austeni
 Le Garrulaxe d'Austen (Trochalopteron austeni) est une espèce d'oiseaux de la famille des Leiothrichidae. Cet oiseau peuple le Patkai, le massif montagneux formant une frontière naturelle entre la Birmanie et l'Inde.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Garrulaxe_d%27Austen</t>
+          <t>Garrulaxe_d'Austen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Trochalopteron austeni a été décrite en 1870 par le naturaliste britannique Henry Haversham Godwin-Austen (1834-1923)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Trochalopteron austeni a été décrite en 1870 par le naturaliste britannique Henry Haversham Godwin-Austen (1834-1923).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Garrulaxe_d%27Austen</t>
+          <t>Garrulaxe_d'Austen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Trochalopteron austeni austeni Godwin-Austen, 1870
 sous-espèce Trochalopteron austeni victoriae (Rippon, 1906)</t>
         </is>
